--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC8F26-0E2A-4463-B276-DDA34880B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDEE1DE-6FC4-4051-8D46-042D0B61C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>TAREFAS</t>
   </si>
@@ -92,13 +92,22 @@
     <t>Criação menu lateral de navegação</t>
   </si>
   <si>
-    <t>CRUD funcionários</t>
-  </si>
-  <si>
-    <t>CRUD motoristas</t>
-  </si>
-  <si>
     <t>Geramento de relatório</t>
+  </si>
+  <si>
+    <t>CRUD motorista</t>
+  </si>
+  <si>
+    <t>CRUD funcionário</t>
+  </si>
+  <si>
+    <t>CRUD veículo</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>CRUD usuário</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +226,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -373,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -400,6 +415,66 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,66 +484,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +493,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFF0F0F0"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFFCD2D"/>
       <color rgb="FFE2AC00"/>
       <color rgb="FF1AB6AF"/>
@@ -797,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A0A8D-BCEB-4B7F-9A10-57E199001FBB}">
-  <dimension ref="B2:AJ27"/>
+  <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -854,85 +870,85 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="39"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="40"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
@@ -1033,50 +1049,50 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="27"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1084,7 +1100,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -1111,11 +1127,11 @@
     </row>
     <row r="8" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1123,7 +1139,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
@@ -1150,50 +1166,50 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="20"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="40"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1202,7 +1218,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -1228,11 +1244,11 @@
     </row>
     <row r="11" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1241,16 +1257,16 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -1267,11 +1283,11 @@
     </row>
     <row r="12" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1306,11 +1322,11 @@
     </row>
     <row r="13" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1320,7 +1336,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -1345,11 +1361,11 @@
     </row>
     <row r="14" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1360,7 +1376,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="41"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -1384,46 +1400,46 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="20"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="40"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="14"/>
@@ -1435,7 +1451,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
@@ -1462,8 +1478,8 @@
     </row>
     <row r="17" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="36" t="s">
-        <v>18</v>
+      <c r="C17" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1474,7 +1490,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
@@ -1501,8 +1517,8 @@
     </row>
     <row r="18" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="36" t="s">
-        <v>19</v>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -1513,7 +1529,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -1540,50 +1556,50 @@
     </row>
     <row r="19" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="20"/>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
       <c r="AJ19" s="13"/>
     </row>
     <row r="20" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1591,7 +1607,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -1618,11 +1634,11 @@
     </row>
     <row r="21" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1630,8 +1646,8 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -1657,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
+      <c r="C22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="40"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="C23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1719,7 +1735,7 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
+      <c r="X23" s="41"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
@@ -1735,69 +1751,193 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="AJ24" s="8"/>
+      <c r="C24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="AJ25" s="8"/>
+      <c r="C25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="13"/>
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="13"/>
+    </row>
+    <row r="27" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="5"/>
+      <c r="AJ27" s="8"/>
+    </row>
+    <row r="28" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="AJ28" s="8"/>
+    </row>
+    <row r="29" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="AJ26" s="8"/>
-    </row>
-    <row r="27" spans="2:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="12"/>
+      <c r="D29" s="7"/>
+      <c r="AJ29" s="8"/>
+    </row>
+    <row r="30" spans="2:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="S4:AI4"/>
@@ -1805,16 +1945,9 @@
     <mergeCell ref="F4:R4"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F19:AI19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDEE1DE-6FC4-4051-8D46-042D0B61C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2299305-62D0-45BC-A018-7873B2C72A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>JANEIRO</t>
-  </si>
-  <si>
     <t>FEVEREIRO</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>CRUD usuário</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,6 +427,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -436,6 +437,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,16 +485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +817,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +871,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,50 +1050,50 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="27"/>
+      <c r="C6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
-      <c r="C7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1127,11 +1128,11 @@
     </row>
     <row r="8" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="C8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1166,50 +1167,50 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1244,11 +1245,11 @@
     </row>
     <row r="11" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1258,15 +1259,15 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -1283,11 +1284,11 @@
     </row>
     <row r="12" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1299,13 +1300,13 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1322,11 +1323,11 @@
     </row>
     <row r="13" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1336,7 +1337,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="41"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -1345,7 +1346,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+      <c r="X13" s="22"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
@@ -1361,11 +1362,11 @@
     </row>
     <row r="14" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1376,14 +1377,14 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="41"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="W14" s="22"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -1400,47 +1401,47 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -1479,7 +1480,7 @@
     <row r="17" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1518,7 +1519,7 @@
     <row r="18" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -1557,7 +1558,7 @@
     <row r="19" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
@@ -1596,7 +1597,7 @@
     <row r="20" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -1635,7 +1636,7 @@
     <row r="21" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -1646,8 +1647,8 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -1673,50 +1674,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="28"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1735,7 +1736,7 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="41"/>
+      <c r="X23" s="22"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
@@ -1751,11 +1752,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="C24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1775,12 +1776,12 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
@@ -1790,11 +1791,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1820,7 +1821,7 @@
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
-      <c r="AE25" s="41"/>
+      <c r="AE25" s="22"/>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
@@ -1829,11 +1830,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1859,7 +1860,7 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="41"/>
+      <c r="AE26" s="22"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="16"/>
@@ -1925,13 +1926,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1948,6 +1942,13 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2299305-62D0-45BC-A018-7873B2C72A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC77952-DB09-4F55-AF85-A6322CA3D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,46 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -871,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1050,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1167,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1301,7 +1300,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -1337,7 +1336,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="42"/>
+      <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -1377,7 +1376,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="42"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -1401,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1674,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1752,11 +1751,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1791,11 +1790,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1830,11 +1829,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1926,6 +1925,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1942,13 +1948,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC77952-DB09-4F55-AF85-A6322CA3D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DA65E-5AEF-4853-91AA-866F8EB7C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -437,6 +437,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,15 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A0A8D-BCEB-4B7F-9A10-57E199001FBB}">
   <dimension ref="B2:AJ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1301,8 +1301,8 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -1400,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1673,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="28"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1751,11 +1751,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1790,11 +1790,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1829,11 +1829,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1925,13 +1925,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1948,6 +1941,13 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DA65E-5AEF-4853-91AA-866F8EB7C008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD07BA-4BF0-40BD-AFFB-3D89DD1E37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -437,6 +437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,45 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="F6" sqref="F6:AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1303,7 +1303,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="22"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="16"/>
@@ -1400,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1673,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1751,11 +1751,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1790,11 +1790,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1829,11 +1829,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1925,6 +1925,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1941,13 +1948,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD07BA-4BF0-40BD-AFFB-3D89DD1E37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFB5C8-B0D4-4EF9-9528-A77838EDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +437,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,15 +485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A0A8D-BCEB-4B7F-9A10-57E199001FBB}">
   <dimension ref="B2:AJ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:AI6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +871,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1050,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1167,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1258,18 +1259,18 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
       <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="22"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
@@ -1304,8 +1305,8 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1345,11 +1346,11 @@
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="22"/>
+      <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="22"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -1383,11 +1384,11 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="22"/>
+      <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
+      <c r="AA14" s="22"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
@@ -1400,41 +1401,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1646,8 +1647,8 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -1661,7 +1662,7 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -1673,50 +1674,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="28"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1735,10 +1736,10 @@
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
-      <c r="X23" s="22"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="AA23" s="22"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
@@ -1751,11 +1752,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1775,26 +1776,26 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
       <c r="AB24" s="22"/>
       <c r="AC24" s="22"/>
       <c r="AD24" s="22"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1820,20 +1821,20 @@
       <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
-      <c r="AE25" s="22"/>
+      <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+      <c r="AH25" s="22"/>
       <c r="AI25" s="16"/>
       <c r="AJ25" s="13"/>
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1859,10 +1860,10 @@
       <c r="AB26" s="16"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
-      <c r="AE26" s="22"/>
+      <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
+      <c r="AH26" s="22"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="13"/>
     </row>
@@ -1925,13 +1926,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1948,6 +1942,13 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFB5C8-B0D4-4EF9-9528-A77838EDEFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042F270-10EA-43A9-83EB-DE6EFDDE5C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,46 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -871,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1050,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1167,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1259,18 +1258,18 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="22"/>
+      <c r="Z11" s="9"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
@@ -1305,8 +1304,8 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1401,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1647,8 +1646,8 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -1674,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1752,11 +1751,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1791,11 +1790,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1830,11 +1829,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1926,6 +1925,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1942,13 +1948,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042F270-10EA-43A9-83EB-DE6EFDDE5C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE030D-01AB-4B70-A597-BA5BAE8E494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -437,6 +437,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,15 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="BP12" sqref="BP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1270,7 +1270,7 @@
       <c r="X11" s="16"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="16"/>
+      <c r="AA11" s="9"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
@@ -1349,8 +1349,8 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="22"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
@@ -1387,8 +1387,8 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="22"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
@@ -1400,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1661,8 +1661,7 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="16"/>
+      <c r="AC21" s="22"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
@@ -1673,50 +1672,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="28"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1738,8 +1737,8 @@
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="22"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
@@ -1751,11 +1750,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1778,23 +1777,23 @@
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
-      <c r="AB24" s="22"/>
+      <c r="AB24" s="16"/>
       <c r="AC24" s="22"/>
       <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
-      <c r="AH24" s="16"/>
+      <c r="AH24" s="22"/>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1823,17 +1822,17 @@
       <c r="AE25" s="16"/>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="22"/>
       <c r="AJ25" s="13"/>
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1862,8 +1861,8 @@
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="22"/>
       <c r="AJ26" s="13"/>
     </row>
     <row r="27" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1925,13 +1924,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1948,6 +1940,13 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE030D-01AB-4B70-A597-BA5BAE8E494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC296D76-9DE2-4B36-89CB-1C891E789940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -437,6 +437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,45 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BP12" sqref="BP12"/>
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1350,8 +1350,8 @@
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="22"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
@@ -1388,8 +1388,8 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="22"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
@@ -1400,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1661,8 +1661,9 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="22"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
       <c r="AG21" s="16"/>
@@ -1672,50 +1673,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1738,8 +1739,7 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="16"/>
+      <c r="AC23" s="22"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
@@ -1750,11 +1750,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1778,22 +1778,21 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="22"/>
       <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="22"/>
-      <c r="AI24" s="16"/>
+      <c r="AI24" s="22"/>
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1828,11 +1827,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1924,6 +1923,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1940,13 +1946,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC296D76-9DE2-4B36-89CB-1C891E789940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81494B2-766E-43A4-925F-FBCD3E423B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +437,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,15 +485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +817,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +871,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1050,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1167,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1271,10 +1272,10 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
+      <c r="AE11" s="9"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -1351,11 +1352,11 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="22"/>
+      <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
+      <c r="AH13" s="22"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="13"/>
     </row>
@@ -1389,52 +1390,52 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
-      <c r="AC14" s="22"/>
+      <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
+      <c r="AG14" s="22"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="28"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1663,60 +1664,59 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="16"/>
-      <c r="AD21" s="22"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
+      <c r="AG21" s="22"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="28"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1739,7 +1739,7 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AC23" s="22"/>
+      <c r="AC23" s="42"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
@@ -1750,11 +1750,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1778,8 +1778,8 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="9"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="22"/>
@@ -1788,11 +1788,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1827,11 +1827,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1923,13 +1923,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1946,6 +1939,13 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81494B2-766E-43A4-925F-FBCD3E423B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA665B-51A8-4402-B6DB-65CD50DDE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +437,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,46 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +816,7 @@
   <dimension ref="B2:AJ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BC16" sqref="BC16"/>
+      <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -871,84 +870,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1050,41 +1049,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1167,41 +1166,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1276,7 +1275,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="16"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
@@ -1401,41 +1400,41 @@
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="28"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="41"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1673,50 +1672,50 @@
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1739,7 +1738,7 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AC23" s="42"/>
+      <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
       <c r="AF23" s="16"/>
@@ -1750,11 +1749,11 @@
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1778,7 +1777,7 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
-      <c r="AD24" s="42"/>
+      <c r="AD24" s="16"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
@@ -1788,11 +1787,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1827,11 +1826,11 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
@@ -1923,6 +1922,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F15:AI15"/>
+    <mergeCell ref="F22:AI22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1939,13 +1945,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA665B-51A8-4402-B6DB-65CD50DDE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CDDBD6-B259-4950-B8A7-A331715FCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TAREFAS</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Criação telas do sistema</t>
   </si>
   <si>
-    <t>Criação menu lateral de navegação</t>
-  </si>
-  <si>
-    <t>Geramento de relatório</t>
-  </si>
-  <si>
     <t>CRUD motorista</t>
   </si>
   <si>
@@ -108,6 +102,9 @@
   </si>
   <si>
     <t>MARÇO</t>
+  </si>
+  <si>
+    <t>Criação menu navegação</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +434,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,15 +482,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A0A8D-BCEB-4B7F-9A10-57E199001FBB}">
-  <dimension ref="B2:AJ30"/>
+  <dimension ref="B2:AJ29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AY27" sqref="AY27"/>
+      <selection activeCell="AO24" sqref="AO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -870,84 +868,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1049,41 +1047,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="31"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1166,41 +1164,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="28"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1361,86 +1359,86 @@
     </row>
     <row r="14" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
+      <c r="C14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="28"/>
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="41"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
       <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
       <c r="C16" s="18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -1479,7 +1477,7 @@
     <row r="17" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -1518,7 +1516,7 @@
     <row r="18" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
@@ -1596,7 +1594,7 @@
     <row r="20" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
@@ -1607,7 +1605,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -1624,98 +1622,96 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
+      <c r="AH20" s="22"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
+      <c r="C21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="28"/>
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="32"/>
+      <c r="C22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="41"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
       <c r="AJ22" s="13"/>
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1738,22 +1734,22 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AC23" s="16"/>
+      <c r="AB23" s="16"/>
       <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
       <c r="AJ23" s="13"/>
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1777,21 +1773,22 @@
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="9"/>
       <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
+      <c r="AI24" s="42"/>
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1826,125 +1823,85 @@
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="13"/>
+      <c r="AJ26" s="8"/>
     </row>
     <row r="27" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
+      <c r="C27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="AJ27" s="8"/>
     </row>
     <row r="28" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="AJ28" s="8"/>
     </row>
-    <row r="29" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="5"/>
-      <c r="C29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="AJ29" s="8"/>
-    </row>
-    <row r="30" spans="2:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="12"/>
+    <row r="29" spans="2:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F15:AI15"/>
-    <mergeCell ref="F22:AI22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+  <mergeCells count="22">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="S4:AI4"/>
     <mergeCell ref="F3:AI3"/>
     <mergeCell ref="F4:R4"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F14:AI14"/>
+    <mergeCell ref="F21:AI21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CDDBD6-B259-4950-B8A7-A331715FCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B211D-43D7-48B9-AB77-66E2A44D74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,6 +434,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,46 +482,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +813,7 @@
   <dimension ref="B2:AJ29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO24" sqref="AO24"/>
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -868,84 +867,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1047,41 +1046,41 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="28"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1164,41 +1163,41 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1353,47 +1352,47 @@
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
-      <c r="AH13" s="22"/>
+      <c r="AH13" s="9"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="13"/>
     </row>
     <row r="14" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="28"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="41"/>
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1624,56 +1623,56 @@
       <c r="AC20" s="16"/>
       <c r="AE20" s="16"/>
       <c r="AF20" s="16"/>
-      <c r="AH20" s="22"/>
+      <c r="AH20" s="9"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="13"/>
     </row>
     <row r="21" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="28"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="41"/>
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -1707,11 +1706,11 @@
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1737,19 +1736,19 @@
       <c r="AB23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="9"/>
-      <c r="AF23" s="42"/>
+      <c r="AF23" s="16"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="22"/>
+      <c r="AH23" s="9"/>
       <c r="AI23" s="22"/>
       <c r="AJ23" s="13"/>
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1778,17 +1777,17 @@
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="9"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="42"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="16"/>
       <c r="AJ24" s="13"/>
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1880,6 +1879,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F14:AI14"/>
+    <mergeCell ref="F21:AI21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1896,12 +1901,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F14:AI14"/>
-    <mergeCell ref="F21:AI21"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/PROJ AGROTECH/docs/Cronograma.xlsx
+++ b/PROJ AGROTECH/docs/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\SENAI2023\PROJ AGROTECH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B211D-43D7-48B9-AB77-66E2A44D74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7065344F-C23C-4520-8580-81BAA7F34DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E44D75A-ADBF-4C26-828E-134A5268309D}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +223,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -385,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -424,7 +418,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -472,15 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +806,7 @@
   <dimension ref="B2:AJ29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+      <selection activeCell="F21" sqref="F21:AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -867,84 +860,84 @@
     </row>
     <row r="3" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
       <c r="AJ3" s="20"/>
     </row>
     <row r="4" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
       <c r="AJ4" s="21"/>
     </row>
     <row r="5" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1046,50 +1039,50 @@
     </row>
     <row r="6" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="28"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="30"/>
       <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1124,11 +1117,11 @@
     </row>
     <row r="8" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1163,50 +1156,50 @@
     </row>
     <row r="9" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="41"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="24"/>
       <c r="AJ9" s="13"/>
     </row>
     <row r="10" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1241,11 +1234,11 @@
     </row>
     <row r="11" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1280,11 +1273,11 @@
     </row>
     <row r="12" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1319,11 +1312,11 @@
     </row>
     <row r="13" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1358,41 +1351,41 @@
     </row>
     <row r="14" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="24"/>
       <c r="AJ14" s="13"/>
     </row>
     <row r="15" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1629,50 +1622,50 @@
     </row>
     <row r="21" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="41"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="24"/>
       <c r="AJ21" s="13"/>
     </row>
     <row r="22" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -1706,11 +1699,11 @@
     </row>
     <row r="23" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1739,16 +1732,16 @@
       <c r="AF23" s="16"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
-      <c r="AI23" s="22"/>
+      <c r="AI23" s="9"/>
       <c r="AJ23" s="13"/>
     </row>
     <row r="24" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -1783,11 +1776,11 @@
     </row>
     <row r="25" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1817,7 +1810,7 @@
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
-      <c r="AI25" s="22"/>
+      <c r="AI25" s="9"/>
       <c r="AJ25" s="13"/>
     </row>
     <row r="26" spans="2:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1879,12 +1872,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F9:AI9"/>
-    <mergeCell ref="F14:AI14"/>
-    <mergeCell ref="F21:AI21"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F6:AI6"/>
     <mergeCell ref="C3:E4"/>
@@ -1901,6 +1888,12 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F9:AI9"/>
+    <mergeCell ref="F14:AI14"/>
+    <mergeCell ref="F21:AI21"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
